--- a/src/Helpers/resources/format_collection_office.xlsx
+++ b/src/Helpers/resources/format_collection_office.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff\Documents\cartera_mysql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff\Documents\Develop\xara\wallcart-back\src\Helpers\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A81DC9-2D1A-4883-97ED-EE351DF2FE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F784BE8-C620-47C6-AD3E-80F1DF250A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{95D740B1-5CA5-4463-9EF6-20F10D314892}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>SEÑORES:</t>
   </si>
@@ -80,6 +80,353 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">1.	Que en los Estados Financieros de nuestra entidad aparecen cuentas pendientes por cobrar por valor de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{d.data.pesos_letras} (${d.data.valor}) m/cte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, soportada en 1 factura.</t>
+    </r>
+  </si>
+  <si>
+    <t>ESTADO DE CARTERA {d.data.nombre} CORTE {d.data.fecha_corte}</t>
+  </si>
+  <si>
+    <t>Factura</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Glosa inicial</t>
+  </si>
+  <si>
+    <t>Glosa aceptada</t>
+  </si>
+  <si>
+    <t>Saldo</t>
+  </si>
+  <si>
+    <t>Abono</t>
+  </si>
+  <si>
+    <t>{d.data[i].fecha_factura}</t>
+  </si>
+  <si>
+    <t>{d.data[i].factura}</t>
+  </si>
+  <si>
+    <t>Fec. radicado</t>
+  </si>
+  <si>
+    <t>Fec. factura</t>
+  </si>
+  <si>
+    <t>{d.data[i].valor_abonado]</t>
+  </si>
+  <si>
+    <t>{d.data[i].glosa_inicial}</t>
+  </si>
+  <si>
+    <t>{d.data[i].glosa_aceptada}</t>
+  </si>
+  <si>
+    <t>{d.data[i+1]}</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2.	</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{d.data.nombre},</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> no ha dado cumplimiento a los tiempos establecidos por la ley para el pago de servicios de salud, lo cual le ha generado a la E.S.E una afectación en su liquidez.</t>
+    </r>
+  </si>
+  <si>
+    <t>SOLICITUDES:</t>
+  </si>
+  <si>
+    <r>
+      <t>1.	Se solicita a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {d.data.nombre}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, realizar de manera inmediata, el pago de las obligaciones que tiene pendientes a la fecha y que se indican arriba en el numeral, 1 las cuales ascienden a la suma de un valor de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{d.data.pesos_letras}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ($</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{d.data.valor}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) m/cte, soportada en {d.data.cant_facturas} factura.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2.	En caso de presentar objeciones enviar los debidos soportes que las respalden, si las objeciones corresponden a pagos hacer allegar los respectivos soportes indicando las facturas a afectar con cada uno, así mismo si tiene alguna diferencia en cuanto a glosas aceptadas o glosas por conciliar haga allegar los soportes correspondientes, a fin de depurar dicha cartera y poder establecer el valor real; en caso de no recibir objeciones debidamente soportadas a esta cartera dentro de los tres (03) días hábiles siguientes al recibido de esta comunicación, se entenderá </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ACEPTADA LA CARTERA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> por parte de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{d.data.nombre}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, y se procederá al respectivo cobro jurídico de la misma, proceso en el cual se aplicarán y cobrarán los respectivos intereses moratorios y costas judiciales a que haya lugar.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.	Se solicita que </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{d.data.nombre}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, dé el debido cumplimiento a los tiempos establecidos por normatividad vigente en cuanto a pago de sus obligaciones por concepto de prestación de servicios de salud, a la cuenta Corriente </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Banco Popular N° 110-690-04010-0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Por último, se informa que en el evento si transcurridos tres días hábiles después del radicado del presente oficio </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{d.data.nombre}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, no ha realizado el pago de lo adeudado, la E.S.E HOSPITAL JOSE MARIA HERNANDEZ dará inicio al cobro de esta cartera por la vía jurídica.</t>
+    </r>
+  </si>
+  <si>
+    <t>N O T I F I C A C I O N E S</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Las recibiré en la siguiente dirección: Calle 14 N° 7 - 26 Avenida San Francisco – Mocoa Putumayo, Gerencia de la E.S.E. Hospital José María Hernández de Mocoa – Putumayo y a los correos de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gerencia@esehospitalmocoa.gov.co  cartera@esehospitalmocoa.gov.co</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Agradezco su atención.</t>
+  </si>
+  <si>
+    <t>Respetuosamente,</t>
+  </si>
+  <si>
+    <t>Gerente</t>
+  </si>
+  <si>
+    <t>E.S.E Hospital José María Hernández</t>
+  </si>
+  <si>
+    <t>C.C Superintendencia Nacional de Salud</t>
+  </si>
+  <si>
+    <t>C.C Ministerio de Salud y Protección Social</t>
+  </si>
+  <si>
+    <t>H E C H O S:</t>
+  </si>
+  <si>
+    <t>{d.data[i].saldo_s}</t>
+  </si>
+  <si>
+    <t>{d.data[i].fec_rad_factura</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Yo </t>
     </r>
     <r>
@@ -91,7 +438,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{d.data.nombre_rep_legal}</t>
+      <t>{d.data.rep_legal}</t>
     </r>
     <r>
       <rPr>
@@ -147,357 +494,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1.	Que en los Estados Financieros de nuestra entidad aparecen cuentas pendientes por cobrar por valor de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{d.data.pesos_letras} (${d.data.valor}) m/cte</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, soportada en 1 factura.</t>
-    </r>
-  </si>
-  <si>
-    <t>ESTADO DE CARTERA {d.data.nombre} CORTE {d.data.fecha_corte}</t>
-  </si>
-  <si>
-    <t>Factura</t>
-  </si>
-  <si>
-    <t>Valor</t>
-  </si>
-  <si>
-    <t>Glosa inicial</t>
-  </si>
-  <si>
-    <t>Glosa aceptada</t>
-  </si>
-  <si>
-    <t>Saldo</t>
-  </si>
-  <si>
-    <t>Abono</t>
-  </si>
-  <si>
-    <t>{d.data[i].fecha_factura}</t>
-  </si>
-  <si>
-    <t>{d.data[i].fec_rad_fac</t>
-  </si>
-  <si>
-    <t>{d.data[i].factura}</t>
-  </si>
-  <si>
-    <t>Fec. radicado</t>
-  </si>
-  <si>
-    <t>Fec. factura</t>
-  </si>
-  <si>
-    <t>{d.data[i].valor}</t>
-  </si>
-  <si>
-    <t>{d.data[i].valor_abonado]</t>
-  </si>
-  <si>
-    <t>{d.data[i].glosa_inicial}</t>
-  </si>
-  <si>
-    <t>{d.data[i].glosa_aceptada}</t>
-  </si>
-  <si>
-    <t>{d.data[i].saldo}</t>
-  </si>
-  <si>
-    <t>{d.data[i+1]}</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2.	</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{d.data.nombre},</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> no ha dado cumplimiento a los tiempos establecidos por la ley para el pago de servicios de salud, lo cual le ha generado a la E.S.E una afectación en su liquidez.</t>
-    </r>
-  </si>
-  <si>
-    <t>SOLICITUDES:</t>
-  </si>
-  <si>
-    <r>
-      <t>1.	Se solicita a</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> {d.data.nombre}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, realizar de manera inmediata, el pago de las obligaciones que tiene pendientes a la fecha y que se indican arriba en el numeral, 1 las cuales ascienden a la suma de un valor de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{d.data.pesos_letras}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ($</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{d.data.valor}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) m/cte, soportada en {d.data.cant_facturas} factura.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2.	En caso de presentar objeciones enviar los debidos soportes que las respalden, si las objeciones corresponden a pagos hacer allegar los respectivos soportes indicando las facturas a afectar con cada uno, así mismo si tiene alguna diferencia en cuanto a glosas aceptadas o glosas por conciliar haga allegar los soportes correspondientes, a fin de depurar dicha cartera y poder establecer el valor real; en caso de no recibir objeciones debidamente soportadas a esta cartera dentro de los tres (03) días hábiles siguientes al recibido de esta comunicación, se entenderá </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ACEPTADA LA CARTERA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> por parte de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{d.data.nombre}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, y se procederá al respectivo cobro jurídico de la misma, proceso en el cual se aplicarán y cobrarán los respectivos intereses moratorios y costas judiciales a que haya lugar.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3.	Se solicita que </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{d.data.nombre}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, dé el debido cumplimiento a los tiempos establecidos por normatividad vigente en cuanto a pago de sus obligaciones por concepto de prestación de servicios de salud, a la cuenta Corriente </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Banco Popular N° 110-690-04010-0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Por último, se informa que en el evento si transcurridos tres días hábiles después del radicado del presente oficio </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{d.data.nombre}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, no ha realizado el pago de lo adeudado, la E.S.E HOSPITAL JOSE MARIA HERNANDEZ dará inicio al cobro de esta cartera por la vía jurídica.</t>
-    </r>
-  </si>
-  <si>
-    <t>N O T I F I C A C I O N E S</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Las recibiré en la siguiente dirección: Calle 14 N° 7 - 26 Avenida San Francisco – Mocoa Putumayo, Gerencia de la E.S.E. Hospital José María Hernández de Mocoa – Putumayo y a los correos de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>gerencia@esehospitalmocoa.gov.co  cartera@esehospitalmocoa.gov.co</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>Agradezco su atención.</t>
-  </si>
-  <si>
-    <t>Respetuosamente,</t>
-  </si>
-  <si>
-    <t>Gerente</t>
-  </si>
-  <si>
-    <t>E.S.E Hospital José María Hernández</t>
-  </si>
-  <si>
-    <t>C.C Superintendencia Nacional de Salud</t>
-  </si>
-  <si>
-    <t>C.C Ministerio de Salud y Protección Social</t>
-  </si>
-  <si>
-    <t>H E C H O S:</t>
-  </si>
-  <si>
-    <t>{d.data.nombre_rep_legal}</t>
+    <t>{d.data.rep_legal}</t>
   </si>
 </sst>
 </file>
@@ -505,7 +502,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-240A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-240A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -599,10 +596,23 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
@@ -610,22 +620,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -942,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8725AF-7947-4F47-A4E5-A3C47DA32D48}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,7 +957,7 @@
       </c>
       <c r="D2" s="1">
         <f ca="1">TODAY()</f>
-        <v>44894</v>
+        <v>44910</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -979,15 +976,15 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -995,297 +992,292 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="D19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="G20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="H20" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="B21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="6">
         <f>SUM(D20:D21)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="6">
         <f t="shared" ref="E22:H22" si="0">SUM(E20:E21)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="28" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="30" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="32" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="34" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="28" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="30" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+    </row>
+    <row r="41" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="32" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="34" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-    </row>
-    <row r="41" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A34:H34"/>
     <mergeCell ref="A39:H39"/>
     <mergeCell ref="A41:H41"/>
     <mergeCell ref="A14:H14"/>
@@ -1299,6 +1291,7 @@
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A34:H34"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="portrait" r:id="rId1"/>
